--- a/biology/Zoologie/Cerasinops/Cerasinops.xlsx
+++ b/biology/Zoologie/Cerasinops/Cerasinops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cerasinops (qui signifie « visage couleur de cerise[1] ») est un genre de dinosaures cératopsiens primitifs de la famille des Leptoceratopsidae composé d'une seule espèce, Cerasinops hodgskissi.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cerasinops (qui signifie « visage couleur de cerise ») est un genre de dinosaures cératopsiens primitifs de la famille des Leptoceratopsidae composé d'une seule espèce, Cerasinops hodgskissi.
 C'était un petit dinosaure qui a vécu durant le Campanien, à la fin du Crétacé.
 Il a été décrit par Brenda J. Chinnery (d) et Jack Horner en 2007 à partir d'un squelette à 80% complet. Il fait partie du groupe Cerastopia (face à corne), un groupe de dinosaures herbivores présentant un « bec de perroquet » et qui ont prospéré en Amérique du Nord et en Asie durant la période du Crétacé. 
-Il est tantôt classé dans les Neoceratopia tantôt dans les Leptoceratopsidae[2].
+Il est tantôt classé dans les Neoceratopia tantôt dans les Leptoceratopsidae.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Brenda J. Chinnery et John R. Horner, « A new neoceratopsian dinosaur linking North American and Asian taxa », Journal of Vertebrate Paleontology, SVP et Taylor &amp; Francis, vol. 27, no 3,‎ 12 septembre 2007, p. 625-641 (ISSN 0272-4634 et 1937-2809, OCLC 238100068, DOI 10.1671/0272-4634(2007)27[625:ANNDLN]2.0.CO;2)</t>
         </is>
